--- a/csv/素子一--零件領料登記表.xlsx
+++ b/csv/素子一--零件領料登記表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="素子一零件庫存明細表" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,8 +14,8 @@
     <sheet name="素子-雜項" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">零件領料記錄!$A$2:$G$616</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">零件領料記錄!$A$2:$G$179</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">零件領料記錄!$A$2:$G$179</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">零件領料記錄!$A$2:$G$616</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2433,8 +2433,8 @@
   </sheetPr>
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C110" activeCellId="0" sqref="C110"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I98" activeCellId="0" sqref="I98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4741,8 +4741,8 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28012,7 +28012,7 @@
       <c r="F1351" s="55"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G616"/>
+  <autoFilter ref="A2:G179"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
